--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeM3\Desktop\nvalue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63094202-2FB3-46B9-96FF-D411643BAD04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B74CA4-61B7-4E68-8E26-17622F5107AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,1090 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="358">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Albwerk GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Eybstraße 98-102 73312 Geislingen</t>
+  </si>
+  <si>
+    <t>07331 / 209-600</t>
+  </si>
+  <si>
+    <t>07331 / 209-601</t>
+  </si>
+  <si>
+    <t>vertrieb@albwerk.de</t>
+  </si>
+  <si>
+    <t>Herr Michael Kizler</t>
+  </si>
+  <si>
+    <t>www.albwerk.de</t>
+  </si>
+  <si>
+    <t>ASEW Energie und Umwelt Service GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Eupener Str. 74 50933 Köln</t>
+  </si>
+  <si>
+    <t>0221 / 931819-18</t>
+  </si>
+  <si>
+    <t>0221 / 931819-9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>www.asew.de</t>
+  </si>
+  <si>
+    <t>AVIA AG</t>
+  </si>
+  <si>
+    <t>Grillparzerstr. 8 81675 München</t>
+  </si>
+  <si>
+    <t>089 / 455045–0</t>
+  </si>
+  <si>
+    <t>www.avia.de</t>
+  </si>
+  <si>
+    <t>AVU Aktiengesellschaft für Versorgungs-Unternehmen</t>
+  </si>
+  <si>
+    <t>An der Drehbank 18 58285 Gevelsberg</t>
+  </si>
+  <si>
+    <t>02332 / 73605</t>
+  </si>
+  <si>
+    <t>02332 / 73639</t>
+  </si>
+  <si>
+    <t>graefeD@avu.de</t>
+  </si>
+  <si>
+    <t>www.avu.de</t>
+  </si>
+  <si>
+    <t>badenova AG &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Tullastr. 61 79108 Freiburg</t>
+  </si>
+  <si>
+    <t>08002 / 83 84 85</t>
+  </si>
+  <si>
+    <t>www.badenova.de</t>
+  </si>
+  <si>
+    <t>BayWa Ökoenergie GmbH</t>
+  </si>
+  <si>
+    <t>Grillparzerstraße 12a 81675 München</t>
+  </si>
+  <si>
+    <t>0800 / 7241640</t>
+  </si>
+  <si>
+    <t>baywa-oekoenergie@abrechnung.com</t>
+  </si>
+  <si>
+    <t>www.baywa-oekoenergie.de</t>
+  </si>
+  <si>
+    <t>Blomberger Versorgungsbetriebe GmbH</t>
+  </si>
+  <si>
+    <t>Nederlandstr. 15 32825 Blomberg</t>
+  </si>
+  <si>
+    <t>05235 / 95023051</t>
+  </si>
+  <si>
+    <t>vattrodt@bvb-blomberg.de</t>
+  </si>
+  <si>
+    <t>Christian Vattrodt</t>
+  </si>
+  <si>
+    <t>www.bvb-blomberg.de</t>
+  </si>
+  <si>
+    <t>ComMetering GmbH</t>
+  </si>
+  <si>
+    <t>Rathausstraße 4 88457 Kirchdorf</t>
+  </si>
+  <si>
+    <t>info@commetering.de</t>
+  </si>
+  <si>
+    <t>www.commetering.de</t>
+  </si>
+  <si>
+    <t>DB Energie GmbH</t>
+  </si>
+  <si>
+    <t>Pfarrer-Perabo-Platz 2 D-60326 Frankfurt</t>
+  </si>
+  <si>
+    <t>069 / 265-23715</t>
+  </si>
+  <si>
+    <t>069 / 265-23318</t>
+  </si>
+  <si>
+    <t>waldemar.schlaht@deutschebahn.com</t>
+  </si>
+  <si>
+    <t>www.dbenergie.de</t>
+  </si>
+  <si>
+    <t>EGT Energiehandel GmbH</t>
+  </si>
+  <si>
+    <t>Schonacherstr. 2 78098 Triberg</t>
+  </si>
+  <si>
+    <t>info@egt.de</t>
+  </si>
+  <si>
+    <t>www.egt.de</t>
+  </si>
+  <si>
+    <t>Elektrizitätsgenossenschaft Dirmstein eG</t>
+  </si>
+  <si>
+    <t>Wormser Straße 111 67227 Frankenthal (Pfalz)</t>
+  </si>
+  <si>
+    <t>06233 / 602-0</t>
+  </si>
+  <si>
+    <t>www.egdirmstein.de</t>
+  </si>
+  <si>
+    <t>Energie- und Wasserversorgung Bruchsal GmbH</t>
+  </si>
+  <si>
+    <t>Schnabel-Henning-Str. 1a 76646 Bruchsal</t>
+  </si>
+  <si>
+    <t>07251 / 706-444</t>
+  </si>
+  <si>
+    <t>Herr Kull</t>
+  </si>
+  <si>
+    <t>Energie- und Wasserversorgung Rheine GmbH</t>
+  </si>
+  <si>
+    <t>Hafenbahn 10 48431 Rheine</t>
+  </si>
+  <si>
+    <t>05971 / 45193</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-rheine.de</t>
+  </si>
+  <si>
+    <t>Energie Aktiengesellschaft Iserlohn</t>
+  </si>
+  <si>
+    <t>Stefanstr. 4-8 58636 Iserlohn</t>
+  </si>
+  <si>
+    <t>www.energie-ag.de/</t>
+  </si>
+  <si>
+    <t>Energiegenossenschaft Odenwald eG</t>
+  </si>
+  <si>
+    <t>Helmholtzstraße 1 64711 Erbach</t>
+  </si>
+  <si>
+    <t>www.eg-odenwald.de</t>
+  </si>
+  <si>
+    <t>energieGUT GmbH</t>
+  </si>
+  <si>
+    <t>Bungertstr. 27 47053 Duisburg</t>
+  </si>
+  <si>
+    <t>0203 / 39 39 40</t>
+  </si>
+  <si>
+    <t>kontakt@energieGUT.de</t>
+  </si>
+  <si>
+    <t>www.energieGUT.de</t>
+  </si>
+  <si>
+    <t>Energieversorgung Bad Boll GmbH</t>
+  </si>
+  <si>
+    <t>Sitz: 
+Hauptstr. 94
+73087 Bad Boll Postanschrift: 
+Eybstr. 98-102
+73312 Geislingen</t>
+  </si>
+  <si>
+    <t>07164 / 808-25</t>
+  </si>
+  <si>
+    <t>info@energie-bollwerk.de</t>
+  </si>
+  <si>
+    <t>www.energie-bollwerk.de</t>
+  </si>
+  <si>
+    <t>Energieversorgung Rüsselsheim GmbH</t>
+  </si>
+  <si>
+    <t>Walter-Flex-Str. 74 65428 Rüsselsheim</t>
+  </si>
+  <si>
+    <t>06142 / 500-222</t>
+  </si>
+  <si>
+    <t>strom@stadtwerke-ruesselsheim.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-ruesselsheim.de</t>
+  </si>
+  <si>
+    <t>Energiewerke Waldbröl GmbH</t>
+  </si>
+  <si>
+    <t>Nümbrechter Straße 6 51545 Waldbröl</t>
+  </si>
+  <si>
+    <t>02291 / 9088-0</t>
+  </si>
+  <si>
+    <t>02291 / 9088-230</t>
+  </si>
+  <si>
+    <t>info@ew-waldbroel.de</t>
+  </si>
+  <si>
+    <t>www.ew-waldbroel.de</t>
+  </si>
+  <si>
+    <t>energy4u GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Bachstraße 3 53721 Siegburg</t>
+  </si>
+  <si>
+    <t>0800 / 7878708</t>
+  </si>
+  <si>
+    <t>Oliver.Weber@energy4u.de</t>
+  </si>
+  <si>
+    <t>Herr Oliver Weber
+Oliver</t>
+  </si>
+  <si>
+    <t>www.energy4u.de</t>
+  </si>
+  <si>
+    <t>enewa GmbH
+Energie + Wasser Wachtberg</t>
+  </si>
+  <si>
+    <t>Am Wachtbergring 2a 53343 Wachtberg</t>
+  </si>
+  <si>
+    <t>0228 / 377368-0</t>
+  </si>
+  <si>
+    <t>www.enewa.de</t>
+  </si>
+  <si>
+    <t>ENTEGA Energie GmbH</t>
+  </si>
+  <si>
+    <t>Frankfurter Str. 100 64289 Darmstadt</t>
+  </si>
+  <si>
+    <t>0800 / 1111 0555</t>
+  </si>
+  <si>
+    <t>kundenservice@entega.de</t>
+  </si>
+  <si>
+    <t>www.entega.de</t>
+  </si>
+  <si>
+    <t>Frankfurter Str. 100 64293 Darmstadt</t>
+  </si>
+  <si>
+    <t>geschaeftskunden@entega.de</t>
+  </si>
+  <si>
+    <t>ESDG Energie-Service Dienstleistungsgesellschaft mbH</t>
+  </si>
+  <si>
+    <t>kontakt@esdg.de</t>
+  </si>
+  <si>
+    <t>www.esdg.de</t>
+  </si>
+  <si>
+    <t>ESWE Versorgungs AG</t>
+  </si>
+  <si>
+    <t>Konradinerallee 25 65189 Wiesbaden</t>
+  </si>
+  <si>
+    <t>www.eswe-versorgung.de</t>
+  </si>
+  <si>
+    <t>EVH GmbH</t>
+  </si>
+  <si>
+    <t>Bornknechtstraße 5 06108 Halle (Saale)</t>
+  </si>
+  <si>
+    <t>0800 / 581 33 33</t>
+  </si>
+  <si>
+    <t>www.evh.de</t>
+  </si>
+  <si>
+    <t>EWS Elektrizitätswerke Schönau Vertriebs GmbH</t>
+  </si>
+  <si>
+    <t>Friedrichstr. 53/55 79677 Schönau im Schwarzwald</t>
+  </si>
+  <si>
+    <t>07673 / 8885-0</t>
+  </si>
+  <si>
+    <t>07673 / 8885-19</t>
+  </si>
+  <si>
+    <t>kundencenter@ews-schoenau.de</t>
+  </si>
+  <si>
+    <t>www.ews-schoenau.de</t>
+  </si>
+  <si>
+    <t>Gemeindewerke Bad Sassendorf GmbH</t>
+  </si>
+  <si>
+    <t>Eichendorffstraße 1 59505 Bad Sassendorf</t>
+  </si>
+  <si>
+    <t>02921 / 50581</t>
+  </si>
+  <si>
+    <t>gemeindewerke@bad-sassendorf.de</t>
+  </si>
+  <si>
+    <t>Gemeindewerke Ruppichteroth GmbH</t>
+  </si>
+  <si>
+    <t>Brölstraße 5 53809 Ruppichteroth</t>
+  </si>
+  <si>
+    <t>02295 / 907000</t>
+  </si>
+  <si>
+    <t>rolf.haenscheid@gemeindewerke-ruppichteroth.de</t>
+  </si>
+  <si>
+    <t>Herr Rolf Haenscheid
+ro</t>
+  </si>
+  <si>
+    <t>www.gemeindewerke-ruppichterot</t>
+  </si>
+  <si>
+    <t>Georg Oest Mineralölwerk GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Georg-Oest-Str. 4 72250 Freudenstadt</t>
+  </si>
+  <si>
+    <t>0744 / 1539112</t>
+  </si>
+  <si>
+    <t>bianca.rosenberg@oest.de</t>
+  </si>
+  <si>
+    <t>www.oest.de</t>
+  </si>
+  <si>
+    <t>Greenpeace Energy eG</t>
+  </si>
+  <si>
+    <t>Hongkongstr. 10 20457 Hamburg</t>
+  </si>
+  <si>
+    <t>040 / 808 110-600</t>
+  </si>
+  <si>
+    <t>info@greenpeace-energy.de</t>
+  </si>
+  <si>
+    <t>www.greenpeace-energy.de</t>
+  </si>
+  <si>
+    <t>Heinrich Klöcker GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Ahauser Str. 21 46325 Borken</t>
+  </si>
+  <si>
+    <t>0286 / 1800744</t>
+  </si>
+  <si>
+    <t>www.kloecker.de</t>
+  </si>
+  <si>
+    <t>Hellweg Energie GmbH</t>
+  </si>
+  <si>
+    <t>Bunsenstrasse 2 59557 Lippstadt</t>
+  </si>
+  <si>
+    <t>0241 / 282 9233</t>
+  </si>
+  <si>
+    <t>vertrieb@hellwegenergie.de</t>
+  </si>
+  <si>
+    <t>www.hellwegenergie.de</t>
+  </si>
+  <si>
+    <t>Hermann Bantleon GmbH</t>
+  </si>
+  <si>
+    <t>Blaubeurer Straße 32 89077 Ulm/Donau</t>
+  </si>
+  <si>
+    <t>0731 / 3990190</t>
+  </si>
+  <si>
+    <t>www.bantleon.de</t>
+  </si>
+  <si>
+    <t>HKD Handelsgesellschaft für Kirche und Diakonie mbH</t>
+  </si>
+  <si>
+    <t>Herzog-Friedrich-Str. 45 24103 Kiel</t>
+  </si>
+  <si>
+    <t>0431 / 54 44-8844</t>
+  </si>
+  <si>
+    <t>0431 / 54 44-8888</t>
+  </si>
+  <si>
+    <t>info@hkd.de</t>
+  </si>
+  <si>
+    <t>www.hkd.de</t>
+  </si>
+  <si>
+    <t>Hochsauerland Energie GmbH</t>
+  </si>
+  <si>
+    <t>Auf'm Brinke 11 59872 Meschede</t>
+  </si>
+  <si>
+    <t>0290 / 4712 8011</t>
+  </si>
+  <si>
+    <t>S. Klauke</t>
+  </si>
+  <si>
+    <t>www.hochsauerlandenergie.de</t>
+  </si>
+  <si>
+    <t>lLZHÖFERS Nachf. lnh. Walch KG</t>
+  </si>
+  <si>
+    <t>Siebentischstr. 16a 86161 Augsburg</t>
+  </si>
+  <si>
+    <t>0821 / 5608027</t>
+  </si>
+  <si>
+    <t>www.ilzhoefer.com</t>
+  </si>
+  <si>
+    <t>KESLAR GmbH Energiehandel</t>
+  </si>
+  <si>
+    <t>Ostbahnhofstr. 1 87437 Kempten</t>
+  </si>
+  <si>
+    <t>0831 / 5753027</t>
+  </si>
+  <si>
+    <t>www.keslar.de</t>
+  </si>
+  <si>
+    <t>LichtBlick SE</t>
+  </si>
+  <si>
+    <t>Zirkusweg 6 20359 Hamburg</t>
+  </si>
+  <si>
+    <t>040 / 80803030</t>
+  </si>
+  <si>
+    <t>www.lichtblick.de</t>
+  </si>
+  <si>
+    <t>040 / 80803034</t>
+  </si>
+  <si>
+    <t>040 / 80803035</t>
+  </si>
+  <si>
+    <t>Mark-E AG</t>
+  </si>
+  <si>
+    <t>Körnerstraße 40 58095 Hagen</t>
+  </si>
+  <si>
+    <t>0800 / 123 1000</t>
+  </si>
+  <si>
+    <t>www.mark-e.de</t>
+  </si>
+  <si>
+    <t>MEGA Monheimer Elektrizitäts- und Gasversorgung GmbH</t>
+  </si>
+  <si>
+    <t>Rheinpromenade 3a 40789 Monheim am Rhein</t>
+  </si>
+  <si>
+    <t>02173 / 9520-222</t>
+  </si>
+  <si>
+    <t>info@mega-monheim.de</t>
+  </si>
+  <si>
+    <t>www.mega-monheim.de</t>
+  </si>
+  <si>
+    <t>Otto Fricke &amp; Co. GmbH</t>
+  </si>
+  <si>
+    <t>Kaiserstr. 36 33330 Gütersloh</t>
+  </si>
+  <si>
+    <t>05241 / 10054</t>
+  </si>
+  <si>
+    <t>www.fricke-oil.de</t>
+  </si>
+  <si>
+    <t>Pfalzwerke AG</t>
+  </si>
+  <si>
+    <t>Kurfüstenstr. 29 67061 Ludwigshafen</t>
+  </si>
+  <si>
+    <t>0621 / 570573123</t>
+  </si>
+  <si>
+    <t>0621 / 5852399</t>
+  </si>
+  <si>
+    <t>info@pfalzwerke.de</t>
+  </si>
+  <si>
+    <t>www.123energie.de</t>
+  </si>
+  <si>
+    <t>PROKON regenerative Energien eG</t>
+  </si>
+  <si>
+    <t>Kirchhoffstraße 3 25524 Itzehoe</t>
+  </si>
+  <si>
+    <t>04821 / 6855222</t>
+  </si>
+  <si>
+    <t>04821 / 6855377</t>
+  </si>
+  <si>
+    <t>strom@prokon.net</t>
+  </si>
+  <si>
+    <t>www.prokon.net</t>
+  </si>
+  <si>
+    <t>Repower AG</t>
+  </si>
+  <si>
+    <t>Frontoffice Renewables Trading Hardstrasse 201</t>
+  </si>
+  <si>
+    <t>41 81 839 7003</t>
+  </si>
+  <si>
+    <t>Stadtwerk am See GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Kornblumenstraße 7 88046 Friedrichshafen</t>
+  </si>
+  <si>
+    <t>www.stadtwerk-am-see.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Aachen AG</t>
+  </si>
+  <si>
+    <t>Lombardenstr. 12-22 52070 Aachen</t>
+  </si>
+  <si>
+    <t>0241 / 181-0</t>
+  </si>
+  <si>
+    <t>0241 / 181-7777</t>
+  </si>
+  <si>
+    <t>info@stawag.de</t>
+  </si>
+  <si>
+    <t>www.stawag.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Altdorf GmbH</t>
+  </si>
+  <si>
+    <t>Hersbrucker Str. 6a 90518 Altdorf b. Nürnberg</t>
+  </si>
+  <si>
+    <t>09187 / 929-0</t>
+  </si>
+  <si>
+    <t>09187 / 929-140</t>
+  </si>
+  <si>
+    <t>klaus.alder@stadtwerke-altdorf.de</t>
+  </si>
+  <si>
+    <t>Klaus Alder</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-altdorf.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Ettlingen GmbH</t>
+  </si>
+  <si>
+    <t>Hertzstraße 33 76275 Ettlingen</t>
+  </si>
+  <si>
+    <t>07243 / 101-619</t>
+  </si>
+  <si>
+    <t>martin.meier@sw-ettlingen.de</t>
+  </si>
+  <si>
+    <t>Martin Meier</t>
+  </si>
+  <si>
+    <t>www.sw-ettlingen.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Eutin GmbH</t>
+  </si>
+  <si>
+    <t>Holstenstr. 6 23701 Eutin</t>
+  </si>
+  <si>
+    <t>04521 / 705300</t>
+  </si>
+  <si>
+    <t>04521 / 705305</t>
+  </si>
+  <si>
+    <t>kundenservice@stadtwerke-eutin.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-eutin.de/</t>
+  </si>
+  <si>
+    <t>Stadtwerke Flensburg GmbH</t>
+  </si>
+  <si>
+    <t>Batteriestr. 48 24939 Flensburg</t>
+  </si>
+  <si>
+    <t>0461 / 487 44 55</t>
+  </si>
+  <si>
+    <t>0461 / 487 16 99</t>
+  </si>
+  <si>
+    <t>service@stadtwerke-flensburg.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-flensburg.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Frankenthal GmbH</t>
+  </si>
+  <si>
+    <t>s.klauke@hochsauerlandenergie.de</t>
+  </si>
+  <si>
+    <t>www.swift-energy.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Geldern GmbH</t>
+  </si>
+  <si>
+    <t>Markt 25 47608 Geldern</t>
+  </si>
+  <si>
+    <t>02831 / 9333-43</t>
+  </si>
+  <si>
+    <t>teller-weyers@swgeldern.de</t>
+  </si>
+  <si>
+    <t>Johannes Teller-Weyers</t>
+  </si>
+  <si>
+    <t>www.swgeldern.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Heidelberg Energie GmbH</t>
+  </si>
+  <si>
+    <t>Kurfürsten-Anlage 42-50 69115 Heidelberg</t>
+  </si>
+  <si>
+    <t>06221 / 513-0</t>
+  </si>
+  <si>
+    <t>06221 / 513-3335</t>
+  </si>
+  <si>
+    <t>info@swhd.de</t>
+  </si>
+  <si>
+    <t>www.hvv-heidelberg.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Iserlohn GmbH</t>
+  </si>
+  <si>
+    <t>0800 / 5892242</t>
+  </si>
+  <si>
+    <t>www.sauerlandstrom-natur.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Karlsruhe GmbH</t>
+  </si>
+  <si>
+    <t>Daxlander Str. 72 76185 Karlsruhe</t>
+  </si>
+  <si>
+    <t>0800 / 200 300 6</t>
+  </si>
+  <si>
+    <t>0721 / 590896</t>
+  </si>
+  <si>
+    <t>postbox@stadtwerke-karlsruhe.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-karlsruhe.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Langenfeld GmbH</t>
+  </si>
+  <si>
+    <t>Langforter Str. 7 40764 Langenfeld</t>
+  </si>
+  <si>
+    <t>02173 / 979-542</t>
+  </si>
+  <si>
+    <t>Winfried Ruhnke</t>
+  </si>
+  <si>
+    <t>www.stw-langenfeld.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Lengerich GmbH</t>
+  </si>
+  <si>
+    <t>An der Mühlenbreede 4 49525 Lengerich</t>
+  </si>
+  <si>
+    <t>054 81 / 80 05-40</t>
+  </si>
+  <si>
+    <t>0800 / 1 555 666</t>
+  </si>
+  <si>
+    <t>Ingo Leufke</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-lengerich.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Lippstadt</t>
+  </si>
+  <si>
+    <t>Bunsenstr. 2 59557 Lippstadt</t>
+  </si>
+  <si>
+    <t>02941 / 2829-12</t>
+  </si>
+  <si>
+    <t>02941 / 2829-98</t>
+  </si>
+  <si>
+    <t>kauke@stadtwerke-lippstadt.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-lippstadt.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Lüdenscheid GmbH</t>
+  </si>
+  <si>
+    <t>Lennestraße 2 58507 Lüdenscheid</t>
+  </si>
+  <si>
+    <t>0800 / 157 1000</t>
+  </si>
+  <si>
+    <t>www.swls.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Ludwigsburg-Kornwestheim GmbH</t>
+  </si>
+  <si>
+    <t>Gänsfußallee 23 71636 Ludwigsburg</t>
+  </si>
+  <si>
+    <t>07141 / 910-2577</t>
+  </si>
+  <si>
+    <t>martina.hailer@swlb.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke MüllheimStaufen GmbH</t>
+  </si>
+  <si>
+    <t>Am Schießrain 1a
+79219 Staufen i.Br.  </t>
+  </si>
+  <si>
+    <t>07631 / 93608-0</t>
+  </si>
+  <si>
+    <t>service@sw-muellheimstaufen.de</t>
+  </si>
+  <si>
+    <t>www.sw-muellheimstaufen.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Pfullendorf GmbH</t>
+  </si>
+  <si>
+    <t>Bahnhofstraße 6 88630 Pfullendorf</t>
+  </si>
+  <si>
+    <t>07552 / 25-1859</t>
+  </si>
+  <si>
+    <t>www.pfullendorf.de/stadtwerke</t>
+  </si>
+  <si>
+    <t>Stadtwerke Plön Versorgungs GmbH</t>
+  </si>
+  <si>
+    <t>Lübecker Straße 20 24306 Plön</t>
+  </si>
+  <si>
+    <t>04522 / 80 89 90</t>
+  </si>
+  <si>
+    <t>04522 / 80 89 9-10</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-ploen.de</t>
+  </si>
+  <si>
+    <t>StadtWerke Rösrath - Energie GmbH</t>
+  </si>
+  <si>
+    <t>Hauptstr. 142 51503 Rösrath</t>
+  </si>
+  <si>
+    <t>0241 / 181-7520</t>
+  </si>
+  <si>
+    <t>0241 / 181-1374</t>
+  </si>
+  <si>
+    <t>Steffen.Kruse@stawag.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-roesrath.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Schwäbisch Gmünd GmbH</t>
+  </si>
+  <si>
+    <t>Bürgerstraße 5 73525 Schwäbisch Gmünd</t>
+  </si>
+  <si>
+    <t>07171 / 603 8111</t>
+  </si>
+  <si>
+    <t>www.nichtwegzudenken.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Waiblingen GmbH</t>
+  </si>
+  <si>
+    <t>Schorndorfer Str. 67 71332 Waiblingen</t>
+  </si>
+  <si>
+    <t>07151 / 131-184</t>
+  </si>
+  <si>
+    <t>T.Meiners@stwwn.de</t>
+  </si>
+  <si>
+    <t>Thorsten Meiners</t>
+  </si>
+  <si>
+    <t>Stadtwerke Waldkirch GmbH</t>
+  </si>
+  <si>
+    <t>Fabrikstraße 15 79183 Waldkirch</t>
+  </si>
+  <si>
+    <t>07681 477889-99</t>
+  </si>
+  <si>
+    <t>info@stadtwerke-waldkirch.de</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-waldkirch.de</t>
+  </si>
+  <si>
+    <t>Stadtwerke Willich GmbH</t>
+  </si>
+  <si>
+    <t>Brauereistraße 7 47877 Willich</t>
+  </si>
+  <si>
+    <t>02154 / 4702-280</t>
+  </si>
+  <si>
+    <t>albert.schuffelen@wbm-stw.de</t>
+  </si>
+  <si>
+    <t>Albert Schuffelen</t>
+  </si>
+  <si>
+    <t>www.stadtwerke-willich.de</t>
+  </si>
+  <si>
+    <t>Stromio GmbH</t>
+  </si>
+  <si>
+    <t>Girmes-Kreuz-Str. 55 41564 Kaarst</t>
+  </si>
+  <si>
+    <t>0800 / 58 58 224Tel. (mobil) 0211 / 777 957 10</t>
+  </si>
+  <si>
+    <t>kundenservice@stromio.de</t>
+  </si>
+  <si>
+    <t>www.gruenwelt.de/</t>
+  </si>
+  <si>
+    <t>susiEnergie GmbH</t>
+  </si>
+  <si>
+    <t>Gerberstrasse 7 88250 Weingarten</t>
+  </si>
+  <si>
+    <t>0800 / 7874123</t>
+  </si>
+  <si>
+    <t>energieabrechnung@susi-energie.de</t>
+  </si>
+  <si>
+    <t>Technische Werke Schussental GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Schussenstraße 22 88212 Ravensburg</t>
+  </si>
+  <si>
+    <t>0751 / 804-4980</t>
+  </si>
+  <si>
+    <t>info@tws.de</t>
+  </si>
+  <si>
+    <t>www.tws.de</t>
+  </si>
+  <si>
+    <t>Wadersloh Energie GmbH</t>
+  </si>
+  <si>
+    <t>Liesborner Straße 5 59329 Wadersloh</t>
+  </si>
+  <si>
+    <t>02523 / 950-1888</t>
+  </si>
+  <si>
+    <t>www.wadersloh-energie.de</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,21 +1452,1769 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BU74" sqref="A1:BW77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="64.75" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" t="s">
+        <v>273</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>284</v>
+      </c>
+      <c r="G61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" t="s">
+        <v>328</v>
+      </c>
+      <c r="G70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>329</v>
+      </c>
+      <c r="B71" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>332</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" t="s">
+        <v>338</v>
+      </c>
+      <c r="G72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>340</v>
+      </c>
+      <c r="B73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>348</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" t="s">
+        <v>351</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>352</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" t="s">
+        <v>355</v>
+      </c>
+      <c r="C76" t="s">
+        <v>356</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeM3\Desktop\nvalue\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B74CA4-61B7-4E68-8E26-17622F5107AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>Company</t>
   </si>
@@ -52,7 +43,7 @@
     <t>07331 / 209-600</t>
   </si>
   <si>
-    <t>07331 / 209-601</t>
+    <t> 07331 / 209-601</t>
   </si>
   <si>
     <t>vertrieb@albwerk.de</t>
@@ -73,7 +64,7 @@
     <t>0221 / 931819-18</t>
   </si>
   <si>
-    <t>0221 / 931819-9</t>
+    <t> 0221 / 931819-9</t>
   </si>
   <si>
     <t/>
@@ -94,7 +85,8 @@
     <t>www.avia.de</t>
   </si>
   <si>
-    <t>AVU Aktiengesellschaft für Versorgungs-Unternehmen</t>
+    <t>AVU Aktiengesellschaft für Versorgungs-Unternehmen
+</t>
   </si>
   <si>
     <t>An der Drehbank 18 58285 Gevelsberg</t>
@@ -103,7 +95,7 @@
     <t>02332 / 73605</t>
   </si>
   <si>
-    <t>02332 / 73639</t>
+    <t> 02332 / 73639</t>
   </si>
   <si>
     <t>graefeD@avu.de</t>
@@ -178,7 +170,7 @@
     <t>069 / 265-23715</t>
   </si>
   <si>
-    <t>069 / 265-23318</t>
+    <t> 069 / 265-23318</t>
   </si>
   <si>
     <t>waldemar.schlaht@deutschebahn.com</t>
@@ -259,10 +251,11 @@
     <t>Bungertstr. 27 47053 Duisburg</t>
   </si>
   <si>
-    <t>0203 / 39 39 40</t>
-  </si>
-  <si>
-    <t>kontakt@energieGUT.de</t>
+    <t> 0203 / 39 39 40</t>
+  </si>
+  <si>
+    <t>
+kontakt@energieGUT.de</t>
   </si>
   <si>
     <t>www.energieGUT.de</t>
@@ -311,7 +304,7 @@
     <t>02291 / 9088-0</t>
   </si>
   <si>
-    <t>02291 / 9088-230</t>
+    <t> 02291 / 9088-230</t>
   </si>
   <si>
     <t>info@ew-waldbroel.de</t>
@@ -361,7 +354,8 @@
     <t>0800 / 1111 0555</t>
   </si>
   <si>
-    <t>kundenservice@entega.de</t>
+    <t>
+kundenservice@entega.de</t>
   </si>
   <si>
     <t>www.entega.de</t>
@@ -412,7 +406,7 @@
     <t>07673 / 8885-0</t>
   </si>
   <si>
-    <t>07673 / 8885-19</t>
+    <t> 07673 / 8885-19</t>
   </si>
   <si>
     <t>kundencenter@ews-schoenau.de</t>
@@ -530,7 +524,7 @@
     <t>0431 / 54 44-8844</t>
   </si>
   <si>
-    <t>0431 / 54 44-8888</t>
+    <t> 0431 / 54 44-8888</t>
   </si>
   <si>
     <t>info@hkd.de</t>
@@ -593,7 +587,7 @@
     <t>040 / 80803034</t>
   </si>
   <si>
-    <t>040 / 80803035</t>
+    <t> 040 / 80803035</t>
   </si>
   <si>
     <t>Mark-E AG</t>
@@ -644,7 +638,7 @@
     <t>0621 / 570573123</t>
   </si>
   <si>
-    <t>0621 / 5852399</t>
+    <t> 0621 / 5852399</t>
   </si>
   <si>
     <t>info@pfalzwerke.de</t>
@@ -662,7 +656,7 @@
     <t>04821 / 6855222</t>
   </si>
   <si>
-    <t>04821 / 6855377</t>
+    <t> 04821 / 6855377</t>
   </si>
   <si>
     <t>strom@prokon.net</t>
@@ -698,7 +692,7 @@
     <t>0241 / 181-0</t>
   </si>
   <si>
-    <t>0241 / 181-7777</t>
+    <t> 0241 / 181-7777</t>
   </si>
   <si>
     <t>info@stawag.de</t>
@@ -716,7 +710,7 @@
     <t>09187 / 929-0</t>
   </si>
   <si>
-    <t>09187 / 929-140</t>
+    <t> 09187 / 929-140</t>
   </si>
   <si>
     <t>klaus.alder@stadtwerke-altdorf.de</t>
@@ -755,7 +749,7 @@
     <t>04521 / 705300</t>
   </si>
   <si>
-    <t>04521 / 705305</t>
+    <t> 04521 / 705305</t>
   </si>
   <si>
     <t>kundenservice@stadtwerke-eutin.de</t>
@@ -773,7 +767,7 @@
     <t>0461 / 487 44 55</t>
   </si>
   <si>
-    <t>0461 / 487 16 99</t>
+    <t> 0461 / 487 16 99</t>
   </si>
   <si>
     <t>service@stadtwerke-flensburg.de</t>
@@ -818,7 +812,7 @@
     <t>06221 / 513-0</t>
   </si>
   <si>
-    <t>06221 / 513-3335</t>
+    <t> 06221 / 513-3335</t>
   </si>
   <si>
     <t>info@swhd.de</t>
@@ -845,7 +839,7 @@
     <t>0800 / 200 300 6</t>
   </si>
   <si>
-    <t>0721 / 590896</t>
+    <t> 0721 / 590896</t>
   </si>
   <si>
     <t>postbox@stadtwerke-karlsruhe.de</t>
@@ -878,7 +872,7 @@
     <t>054 81 / 80 05-40</t>
   </si>
   <si>
-    <t>0800 / 1 555 666</t>
+    <t> 0800 / 1 555 666</t>
   </si>
   <si>
     <t>Ingo Leufke</t>
@@ -896,7 +890,7 @@
     <t>02941 / 2829-12</t>
   </si>
   <si>
-    <t>02941 / 2829-98</t>
+    <t> 02941 / 2829-98</t>
   </si>
   <si>
     <t>kauke@stadtwerke-lippstadt.de</t>
@@ -966,7 +960,7 @@
     <t>04522 / 80 89 90</t>
   </si>
   <si>
-    <t>04522 / 80 89 9-10</t>
+    <t> 04522 / 80 89 9-10</t>
   </si>
   <si>
     <t>www.stadtwerke-ploen.de</t>
@@ -981,7 +975,7 @@
     <t>0241 / 181-7520</t>
   </si>
   <si>
-    <t>0241 / 181-1374</t>
+    <t> 0241 / 181-1374</t>
   </si>
   <si>
     <t>Steffen.Kruse@stawag.de</t>
@@ -1056,7 +1050,7 @@
     <t>Girmes-Kreuz-Str. 55 41564 Kaarst</t>
   </si>
   <si>
-    <t>0800 / 58 58 224Tel. (mobil) 0211 / 777 957 10</t>
+    <t>0800 / 58 58 224</t>
   </si>
   <si>
     <t>kundenservice@stromio.de</t>
@@ -1107,10 +1101,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -1133,2084 +1133,1768 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf applyFont="1" fontId="0"/>
+    <xf applyFont="1" fontId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
-  <a:themeElements>
-    <a:clrScheme name="Оffice">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Оffice">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Оffice">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
-    </sheetView>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.75" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="64.75" customWidth="1"/>
-    <col min="4" max="4" width="49.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="30" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="D22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="D36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="D41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="D43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="D45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="C49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="0" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:7">
+      <c r="A55" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="0" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="0" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="D63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:7">
+      <c r="A66" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="D66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:7">
+      <c r="A67" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="E67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:7">
+      <c r="A68" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:7">
+      <c r="A69" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="D69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="0" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D70" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="0" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="0" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="F74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D75" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:7">
+      <c r="A76" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="D76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="D76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="0" t="s">
         <v>357</v>
       </c>
     </row>
